--- a/gbXML_Toolkit/Pull Revit - Push gbXML_00.xlsx
+++ b/gbXML_Toolkit/Pull Revit - Push gbXML_00.xlsx
@@ -29,30 +29,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Michal Dengusiak</author>
-  </authors>
-  <commentList>
-    <comment ref="D16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>This component failed to run properly. Inputs cannot be collected properly.
-Cannot convert type 'ExcelDna.Integration.ExcelError' to 'BH.oM.Base.IBHoMObject'</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
@@ -116,9 +92,6 @@
     <t>BHoMgbXML_Excel</t>
   </si>
   <si>
-    <t>C:\Users\mdengusi\Desktop\SAM_Bath\2019-04-05 newtemplate</t>
-  </si>
-  <si>
     <t>Push:</t>
   </si>
   <si>
@@ -129,13 +102,16 @@
   </si>
   <si>
     <t>FileName:</t>
+  </si>
+  <si>
+    <t>C:\Users\mdengusi\Desktop\SAM_Bath\2019-05-25 SAMrun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -148,12 +124,6 @@
       <color rgb="FF0070C0"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -570,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -590,12 +560,12 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
@@ -603,14 +573,14 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -626,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
@@ -638,7 +608,7 @@
       </c>
       <c r="D8" s="2" t="str">
         <f>_xll.CreateType.Elements.Building()</f>
-        <v>RuntimeType [e3d87HWe]</v>
+        <v>RuntimeType [7EF8O4gl]</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -650,7 +620,7 @@
       </c>
       <c r="D10" t="str">
         <f>_xll.Adapter.Query.FilterQuery?by_Type_String(D8)</f>
-        <v>FilterQuery [wBHhnWDY]</v>
+        <v>FilterQuery [huUTvNMo]</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
@@ -662,7 +632,7 @@
       </c>
       <c r="D12" t="str">
         <f>_xll.Adapter.Create.RevitAdapter?by_RevitSettings_Boolean(,D6)</f>
-        <v>RevitAdapter [UE94rM1X]</v>
+        <v>RevitAdapter [JjjjHE4f]</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
@@ -672,13 +642,13 @@
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="e">
+      <c r="D14" t="str">
         <f>_xll.Adapter.Pull?by_BHoMAdapter_IQuery_DictionaryOfString_Object_Boolean(D12,D10,,D6)</f>
-        <v>#VALUE!</v>
+        <v>List&lt;Object&gt; [CyCt9Mou]</v>
       </c>
       <c r="E14">
         <f>_xll.Query.Reflection.ICount?by_ListOfObject(D14)</f>
-        <v>1</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
@@ -690,9 +660,9 @@
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="e">
+      <c r="D16" t="str">
         <f>_xll.Create.XML.DocumentBuilder?by_ListOfIBHoMObject(D14)</f>
-        <v>#NULL!</v>
+        <v>DocumentBuilder [/lDpErsn]</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -709,7 +679,7 @@
       </c>
       <c r="D19" t="str">
         <f>_xll.Adapter.Create.XMLAdapter?by_String_String_ExportType_ExportDetail(D4,D3,E19,F19)</f>
-        <v>XMLAdapter [/PfpZiOK]</v>
+        <v>XMLAdapter [Dj57yFqU]</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -728,15 +698,15 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="e">
-        <f>_xll.Adapter.Push?by_BHoMAdapter_IEnumerableOfIObject_String_DictionaryOfString_Object_Boolean(D19,D16:E16,,,D21)</f>
-        <v>#VALUE!</v>
+        <v>20</v>
+      </c>
+      <c r="D23" t="b">
+        <f>_xll.Adapter.Push?by_BHoMAdapter_IEnumerableOfIObject_String_DictionaryOfString_Object_Boolean(D19,D16,,,D21)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D21">
       <formula1>"False,True"</formula1>
     </dataValidation>
@@ -749,6 +719,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>